--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD14_Plazos_150512.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD14_Plazos_150512.xlsx
@@ -29,18 +29,6 @@
     <t>auto</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nº entregas semanales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comentarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Decision date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ordering date</t>
-  </si>
-  <si>
     <t>Ob</t>
   </si>
   <si>
@@ -74,21 +62,12 @@
     <t>Entero</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nº equipos por entrega </t>
-  </si>
-  <si>
     <t>Texto</t>
   </si>
   <si>
     <t>CAMPOS AUTO de la BD5-Ofertas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lista de materiales con códigos SAP </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Probabilidad oferta</t>
-  </si>
-  <si>
     <t>SOLICITUD DE PLAZO</t>
   </si>
   <si>
@@ -104,54 +83,27 @@
     <t>Multivalor</t>
   </si>
   <si>
-    <t>Solicitud (grupo de códigos SAP)</t>
-  </si>
-  <si>
     <t>entero</t>
   </si>
   <si>
-    <t>Plazo (nº de semanas)</t>
-  </si>
-  <si>
     <t>Nº de semanas desde pedido exworks</t>
   </si>
   <si>
     <t>Por defecto lo solicitado por el comercial</t>
   </si>
   <si>
-    <t xml:space="preserve"> Comentarios de respuesta</t>
-  </si>
-  <si>
-    <t>Vigencia</t>
-  </si>
-  <si>
     <t>Cadena de caracteres</t>
   </si>
   <si>
     <t>ID+Nombre</t>
   </si>
   <si>
-    <t>Cliente (ID+Nombre)</t>
-  </si>
-  <si>
-    <t>BD5 Ofertas [Cliente]</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>BD5 Ofertas [Country]</t>
-  </si>
-  <si>
     <t>alfa2+País</t>
   </si>
   <si>
-    <t>Fecha respuesta</t>
-  </si>
-  <si>
-    <t>Hoy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lo normal es responder en 48h. </t>
   </si>
   <si>
@@ -164,9 +116,6 @@
     <t>hh:mm:ss + dd/mm/yyyy</t>
   </si>
   <si>
-    <t>AUTOMATIC</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -206,7 +155,60 @@
     <t>BD5 Ofertas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fecha de inicio suministro</t>
+    <t>Client (ID+Name)</t>
+  </si>
+  <si>
+    <t>Number of weekly deliveries</t>
+  </si>
+  <si>
+    <t>Offer probability</t>
+  </si>
+  <si>
+    <t>Bill of materials with SAP code</t>
+  </si>
+  <si>
+    <t>Reply date</t>
+  </si>
+  <si>
+    <t>Request (set of SAP codes)</t>
+  </si>
+  <si>
+    <t>Due date (number of weeks)</t>
+  </si>
+  <si>
+    <t>Number of items per delivery</t>
+  </si>
+  <si>
+    <t>Number of items per week</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Decision date</t>
+  </si>
+  <si>
+    <t>Ordering date</t>
+  </si>
+  <si>
+    <t>Reply comments</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>Supply start date</t>
+  </si>
+  <si>
+    <t>BD5 Ofertas
+ [Cliente]</t>
+  </si>
+  <si>
+    <t>BD5 Ofertas
+ [Country]</t>
+  </si>
+  <si>
+    <t>Mismo día</t>
   </si>
 </sst>
 </file>
@@ -340,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -393,44 +395,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,158 +729,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="26" t="s">
-        <v>46</v>
-      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>47</v>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>46</v>
+      <c r="D4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>48</v>
+      <c r="G4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="G5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="22">
         <v>123456</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>38</v>
+      <c r="D8" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -894,50 +893,50 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="14" t="s">
-        <v>13</v>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14"/>
@@ -945,175 +944,175 @@
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="16"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>0</v>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>0</v>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>0</v>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>0</v>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>0</v>
@@ -1122,61 +1121,61 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="32" t="s">
-        <v>29</v>
+      <c r="G26" s="27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1186,10 +1185,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
